--- a/report_ca_nhan/NV-22 Nguyễn Phúc Nam 6-2024.xlsx
+++ b/report_ca_nhan/NV-22 Nguyễn Phúc Nam 6-2024.xlsx
@@ -8,12 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +524,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,17 +590,17 @@
         <v>1000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O2" t="n">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="P2" t="n">
-        <v>1300000</v>
+        <v>500000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -605,6 +611,12 @@
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -686,6 +698,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,6 +784,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -844,6 +868,12 @@
       <c r="T5" t="n">
         <v/>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -924,6 +954,12 @@
       <c r="T6" t="n">
         <v/>
       </c>
+      <c r="U6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1004,6 +1040,12 @@
       <c r="T7" t="n">
         <v/>
       </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1084,6 +1126,12 @@
       <c r="T8" t="n">
         <v/>
       </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1162,6 +1210,12 @@
       <c r="T9" t="n">
         <v/>
       </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1236,6 +1290,12 @@
       <c r="T10" t="n">
         <v/>
       </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,6 +1376,12 @@
       <c r="T11" t="n">
         <v/>
       </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1394,6 +1460,12 @@
       <c r="T12" t="n">
         <v/>
       </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1474,6 +1546,12 @@
       <c r="T13" t="n">
         <v/>
       </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1550,6 +1628,12 @@
       <c r="T14" t="n">
         <v/>
       </c>
+      <c r="U14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1630,6 +1714,12 @@
           <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
+      <c r="U15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1712,6 +1802,12 @@
       <c r="T16" t="n">
         <v/>
       </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1791,6 +1887,60 @@
       </c>
       <c r="T17" t="n">
         <v/>
+      </c>
+      <c r="U17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>108900000</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>108900000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>85400000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>87900000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>550000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1912,6 +2062,150 @@
         <is>
           <t>Phụ phẫu 2</t>
         </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>469</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06-25-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +2219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,12 +2235,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã dịch vụ</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1956,587 +2250,23 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Lượng thu</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+          <t>Ngày thu</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>469</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>06-25-2024</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mai thị nương</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
           <t>TN</t>
         </is>
       </c>
@@ -2731,6 +2461,23 @@
           <t>06-29-2024</t>
         </is>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>15700000</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
